--- a/biology/Médecine/Lauritz_Christian_Lindhardt/Lauritz_Christian_Lindhardt.xlsx
+++ b/biology/Médecine/Lauritz_Christian_Lindhardt/Lauritz_Christian_Lindhardt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lauritz Christian Lindhardt, né le 20 août 1842[1] et mort le 25 septembre 1906, est un dentiste danois, professeur à l'École dentaire de Copenhague et président de l'Association dentaire danoise entre 1888 et 1890 et entre 1891 et 1898[2]. En 1870, il a aidé à introduire le premier foret dentaire d'Amérique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lauritz Christian Lindhardt, né le 20 août 1842 et mort le 25 septembre 1906, est un dentiste danois, professeur à l'École dentaire de Copenhague et président de l'Association dentaire danoise entre 1888 et 1890 et entre 1891 et 1898. En 1870, il a aidé à introduire le premier foret dentaire d'Amérique.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Laurtiz Christian Lindhardt est le fils de Bendt Lindhardt et Johanne Thomasine Nicoline Lauritsdatter Prom et est le père de Holger Lindhardt, dentiste à Rønne[2].
-Lindhardt a été nommé professeur titulaire en 1894[2].
-En 1893, Lindhardt est fait chevalier de l'ordre de Dannebrog[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laurtiz Christian Lindhardt est le fils de Bendt Lindhardt et Johanne Thomasine Nicoline Lauritsdatter Prom et est le père de Holger Lindhardt, dentiste à Rønne.
+Lindhardt a été nommé professeur titulaire en 1894.
+En 1893, Lindhardt est fait chevalier de l'ordre de Dannebrog.
 </t>
         </is>
       </c>
